--- a/mbs-perturbation/bloated/decisionTree/smote/bloated-decisionTree-smote-results.xlsx
+++ b/mbs-perturbation/bloated/decisionTree/smote/bloated-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6151685393258427</v>
+        <v>0.6360759493670886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9909502262443439</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7590987868284229</v>
+        <v>0.7775628626692457</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6841178518048361</v>
+        <v>0.7139303482587065</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8134328358208955</v>
+        <v>0.9107981220657277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.990909090909091</v>
+        <v>0.9651741293532339</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8934426229508198</v>
+        <v>0.9371980676328503</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8712155491567256</v>
+        <v>0.943318234697161</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9380530973451328</v>
+        <v>0.919431279620853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.9651741293532339</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9506726457399104</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9837618264088852</v>
+        <v>0.9535407539417341</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9592760180995475</v>
+        <v>0.985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9792147806004619</v>
+        <v>0.9924433249370278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9900041135335254</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9592760180995475</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9769585253456221</v>
+        <v>0.99</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9963492389962979</v>
+        <v>0.9924129353233831</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.872391927362224</v>
+        <v>0.8922560450851057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9728095433977787</v>
+        <v>0.9800845771144278</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9118774722930475</v>
+        <v>0.9277903656109314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9050897159800539</v>
+        <v>0.9201404544441971</v>
       </c>
     </row>
   </sheetData>
